--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2377007.552940275</v>
+        <v>-2379928.797924527</v>
       </c>
     </row>
     <row r="7">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>34.88448735196119</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>25.14024489866527</v>
+        <v>13.79223673232706</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.94848709386832</v>
+        <v>27.94848709386889</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>14.02109506150231</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>32.21140045679353</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.88448735196119</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,22 +984,22 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>30.72625645960741</v>
+        <v>34.88448735196041</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>34.88448735196119</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>34.88448735196041</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>7.336611653513472</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>34.88448735196041</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.38964480609323</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>34.88448735196119</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,13 +1148,13 @@
         <v>13.46317442462584</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>92.66494928910228</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>24.91528667358034</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>23.65357118422321</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>61.28006716750396</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>12.71120930970042</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.61928733384126</v>
+        <v>33.42924826805087</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>92.66494928910228</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>33.84730027516771</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>14.34273879062268</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>92.66494928910228</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>173.6852749624533</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>168.1161921880582</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>23.58292396752848</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>97.27989568773404</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>249.0007990410455</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769638</v>
+        <v>410.1644063769637</v>
       </c>
       <c r="H14" t="n">
         <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>12.380378366055</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516575</v>
+        <v>91.93034877516573</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067864</v>
+        <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>163.0747951064706</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442971</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S16" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
-        <v>98.39922354384278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>170.3401955249216</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200472</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H17" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295189</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U17" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179211</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651992</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262552</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C19" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659986</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453026</v>
+        <v>54.52629139453006</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221591</v>
+        <v>42.04747230221571</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424835</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401422</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716142</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843772</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894981</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
         <v>378.5542040247498</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295086</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2245,7 +2245,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2333,10 +2333,10 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.139568439612049e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295183</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
         <v>186.4872700401421</v>
@@ -2539,7 +2539,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
         <v>186.9744509998809</v>
@@ -2652,7 +2652,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295188</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453025</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221589</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112668</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187938</v>
       </c>
       <c r="D32" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684692</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200478</v>
+        <v>350.320167720048</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894977</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295189</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645688</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262553</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I33" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464141</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453026</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221592</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368234</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3275,13 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3323,16 +3323,16 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I36" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
         <v>117.0052706659985</v>
@@ -3436,13 +3436,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G37" t="n">
-        <v>134.075898551026</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453022</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424834</v>
@@ -3512,13 +3512,13 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894975</v>
+        <v>375.265843389499</v>
       </c>
       <c r="G38" t="n">
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3600,7 +3600,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E40" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G40" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
         <v>54.52629139453015</v>
@@ -3709,7 +3709,7 @@
         <v>42.0474723022158</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T40" t="n">
         <v>186.4872700401421</v>
@@ -3724,7 +3724,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y40" t="n">
         <v>186.9744509998809</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3800,7 +3800,7 @@
         <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651987</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
         <v>338.1208983262551</v>
@@ -3837,7 +3837,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I42" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E43" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T43" t="n">
         <v>186.4872700401421</v>
@@ -3961,7 +3961,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y43" t="n">
         <v>186.9744509998809</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.62773630384</v>
       </c>
     </row>
     <row r="45">
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.59809745907228</v>
+        <v>51.89860703654814</v>
       </c>
       <c r="C5" t="n">
-        <v>98.59809745907228</v>
+        <v>51.89860703654814</v>
       </c>
       <c r="D5" t="n">
-        <v>63.36124154800036</v>
+        <v>51.89860703654814</v>
       </c>
       <c r="E5" t="n">
-        <v>63.36124154800036</v>
+        <v>51.89860703654814</v>
       </c>
       <c r="F5" t="n">
-        <v>56.41574079879689</v>
+        <v>44.95310628734467</v>
       </c>
       <c r="G5" t="n">
-        <v>31.02155403246833</v>
+        <v>31.02155403246885</v>
       </c>
       <c r="H5" t="n">
-        <v>31.02155403246833</v>
+        <v>31.02155403246885</v>
       </c>
       <c r="I5" t="n">
-        <v>31.02155403246833</v>
+        <v>31.02155403246885</v>
       </c>
       <c r="J5" t="n">
-        <v>31.02155403246833</v>
+        <v>31.02155403246885</v>
       </c>
       <c r="K5" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="L5" t="n">
-        <v>5.366676928012159</v>
+        <v>5.366676928011392</v>
       </c>
       <c r="M5" t="n">
-        <v>39.90231940645376</v>
+        <v>39.90231940645221</v>
       </c>
       <c r="N5" t="n">
-        <v>74.43796188489534</v>
+        <v>74.43796188489301</v>
       </c>
       <c r="O5" t="n">
-        <v>98.59809745907228</v>
+        <v>98.59809745906919</v>
       </c>
       <c r="P5" t="n">
-        <v>98.59809745907228</v>
+        <v>84.43537517472343</v>
       </c>
       <c r="Q5" t="n">
-        <v>98.59809745907228</v>
+        <v>51.89860703654814</v>
       </c>
       <c r="R5" t="n">
-        <v>98.59809745907228</v>
+        <v>51.89860703654814</v>
       </c>
       <c r="S5" t="n">
-        <v>98.59809745907228</v>
+        <v>51.89860703654814</v>
       </c>
       <c r="T5" t="n">
-        <v>98.59809745907228</v>
+        <v>51.89860703654814</v>
       </c>
       <c r="U5" t="n">
-        <v>98.59809745907228</v>
+        <v>51.89860703654814</v>
       </c>
       <c r="V5" t="n">
-        <v>98.59809745907228</v>
+        <v>51.89860703654814</v>
       </c>
       <c r="W5" t="n">
-        <v>98.59809745907228</v>
+        <v>51.89860703654814</v>
       </c>
       <c r="X5" t="n">
-        <v>98.59809745907228</v>
+        <v>51.89860703654814</v>
       </c>
       <c r="Y5" t="n">
-        <v>98.59809745907228</v>
+        <v>51.89860703654814</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.06423758570094</v>
+        <v>80.67518965223189</v>
       </c>
       <c r="C6" t="n">
-        <v>69.06423758570094</v>
+        <v>80.67518965223189</v>
       </c>
       <c r="D6" t="n">
-        <v>69.06423758570094</v>
+        <v>80.67518965223189</v>
       </c>
       <c r="E6" t="n">
-        <v>69.06423758570094</v>
+        <v>80.67518965223189</v>
       </c>
       <c r="F6" t="n">
-        <v>38.02761489922881</v>
+        <v>45.43833374116076</v>
       </c>
       <c r="G6" t="n">
-        <v>38.02761489922881</v>
+        <v>45.43833374116076</v>
       </c>
       <c r="H6" t="n">
-        <v>2.790758988156895</v>
+        <v>45.43833374116076</v>
       </c>
       <c r="I6" t="n">
-        <v>2.790758988156895</v>
+        <v>45.43833374116076</v>
       </c>
       <c r="J6" t="n">
-        <v>2.790758988156895</v>
+        <v>10.20147783008963</v>
       </c>
       <c r="K6" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="L6" t="n">
-        <v>15.78028780133887</v>
+        <v>37.32640146659764</v>
       </c>
       <c r="M6" t="n">
-        <v>50.31593027978045</v>
+        <v>71.86204394503844</v>
       </c>
       <c r="N6" t="n">
-        <v>84.85157275822203</v>
+        <v>106.3976864234792</v>
       </c>
       <c r="O6" t="n">
-        <v>119.3872152366636</v>
+        <v>119.3872152366609</v>
       </c>
       <c r="P6" t="n">
-        <v>139.5379494078448</v>
+        <v>139.5379494078416</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.5379494078448</v>
+        <v>104.3010934967705</v>
       </c>
       <c r="R6" t="n">
-        <v>139.5379494078448</v>
+        <v>80.67518965223189</v>
       </c>
       <c r="S6" t="n">
-        <v>139.5379494078448</v>
+        <v>80.67518965223189</v>
       </c>
       <c r="T6" t="n">
-        <v>139.5379494078448</v>
+        <v>80.67518965223189</v>
       </c>
       <c r="U6" t="n">
-        <v>139.5379494078448</v>
+        <v>80.67518965223189</v>
       </c>
       <c r="V6" t="n">
-        <v>139.5379494078448</v>
+        <v>80.67518965223189</v>
       </c>
       <c r="W6" t="n">
-        <v>104.3010934967729</v>
+        <v>80.67518965223189</v>
       </c>
       <c r="X6" t="n">
-        <v>104.3010934967729</v>
+        <v>80.67518965223189</v>
       </c>
       <c r="Y6" t="n">
-        <v>104.3010934967729</v>
+        <v>80.67518965223189</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="C7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="D7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="E7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="F7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="G7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="H7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="I7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="J7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="K7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="L7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="M7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="N7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="O7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="P7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="R7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="S7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="T7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="U7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="V7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="W7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="X7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.790758988156895</v>
+        <v>2.790758988156833</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215.1597805335745</v>
+        <v>146.7257778916331</v>
       </c>
       <c r="C8" t="n">
-        <v>215.1597805335745</v>
+        <v>146.7257778916331</v>
       </c>
       <c r="D8" t="n">
-        <v>215.1597805335745</v>
+        <v>146.7257778916331</v>
       </c>
       <c r="E8" t="n">
-        <v>121.5588216556934</v>
+        <v>146.7257778916331</v>
       </c>
       <c r="F8" t="n">
-        <v>114.6133209064899</v>
+        <v>139.7802771424297</v>
       </c>
       <c r="G8" t="n">
-        <v>101.0141548210093</v>
+        <v>126.181111056949</v>
       </c>
       <c r="H8" t="n">
-        <v>7.413195943128183</v>
+        <v>126.181111056949</v>
       </c>
       <c r="I8" t="n">
-        <v>7.413195943128183</v>
+        <v>32.58015217906792</v>
       </c>
       <c r="J8" t="n">
         <v>7.413195943128183</v>
@@ -4808,10 +4808,10 @@
         <v>21.18357364821455</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940378</v>
+        <v>75.16870670940376</v>
       </c>
       <c r="M8" t="n">
-        <v>166.9070065056151</v>
+        <v>166.907006505615</v>
       </c>
       <c r="N8" t="n">
         <v>258.6453063018263</v>
@@ -4823,31 +4823,31 @@
         <v>370.6597971564091</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6597971564091</v>
+        <v>346.7673010107291</v>
       </c>
       <c r="R8" t="n">
-        <v>370.6597971564091</v>
+        <v>253.166342132848</v>
       </c>
       <c r="S8" t="n">
-        <v>370.6597971564091</v>
+        <v>253.166342132848</v>
       </c>
       <c r="T8" t="n">
-        <v>308.7607394114556</v>
+        <v>253.166342132848</v>
       </c>
       <c r="U8" t="n">
-        <v>308.7607394114556</v>
+        <v>159.5653832549669</v>
       </c>
       <c r="V8" t="n">
-        <v>308.7607394114556</v>
+        <v>159.5653832549669</v>
       </c>
       <c r="W8" t="n">
-        <v>308.7607394114556</v>
+        <v>159.5653832549669</v>
       </c>
       <c r="X8" t="n">
-        <v>215.1597805335745</v>
+        <v>159.5653832549669</v>
       </c>
       <c r="Y8" t="n">
-        <v>215.1597805335745</v>
+        <v>146.7257778916331</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.6151136988904</v>
+        <v>228.8043058960295</v>
       </c>
       <c r="C9" t="n">
-        <v>101.0141548210093</v>
+        <v>228.8043058960295</v>
       </c>
       <c r="D9" t="n">
-        <v>101.0141548210093</v>
+        <v>135.2033470181484</v>
       </c>
       <c r="E9" t="n">
-        <v>101.0141548210093</v>
+        <v>135.2033470181484</v>
       </c>
       <c r="F9" t="n">
-        <v>101.0141548210093</v>
+        <v>135.2033470181484</v>
       </c>
       <c r="G9" t="n">
-        <v>101.0141548210093</v>
+        <v>135.2033470181484</v>
       </c>
       <c r="H9" t="n">
-        <v>7.413195943128183</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="I9" t="n">
-        <v>7.413195943128183</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="J9" t="n">
         <v>7.413195943128183</v>
@@ -4890,7 +4890,7 @@
         <v>102.6982772648968</v>
       </c>
       <c r="M9" t="n">
-        <v>194.436577061108</v>
+        <v>134.8197310560415</v>
       </c>
       <c r="N9" t="n">
         <v>226.5580308522527</v>
@@ -4902,31 +4902,31 @@
         <v>370.6597971564091</v>
       </c>
       <c r="Q9" t="n">
-        <v>370.6597971564091</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="R9" t="n">
-        <v>370.6597971564091</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="S9" t="n">
-        <v>370.6597971564091</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="T9" t="n">
-        <v>277.058838278528</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="U9" t="n">
-        <v>277.058838278528</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="V9" t="n">
-        <v>277.058838278528</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="W9" t="n">
-        <v>277.058838278528</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="X9" t="n">
-        <v>277.058838278528</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="Y9" t="n">
-        <v>277.058838278528</v>
+        <v>262.5712233385051</v>
       </c>
     </row>
     <row r="10">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1859.132475219475</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C11" t="n">
-        <v>1490.169958279063</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D11" t="n">
-        <v>1490.169958279063</v>
+        <v>954.6078386576655</v>
       </c>
       <c r="E11" t="n">
-        <v>1104.381705680819</v>
+        <v>954.6078386576655</v>
       </c>
       <c r="F11" t="n">
-        <v>693.3958008912115</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>278.3233507362079</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927148</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,7 +5051,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5060,7 +5060,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,22 +5069,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2635.871647259409</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y11" t="n">
-        <v>2245.732315283597</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="12">
@@ -5115,13 +5115,13 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158131</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>333.7108202567914</v>
+        <v>650.5934525793617</v>
       </c>
       <c r="C13" t="n">
-        <v>164.7746373288845</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218343</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218343</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879115</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279914</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764875</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760366</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581901</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502315</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935974</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846017</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846017</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415543</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U13" t="n">
-        <v>1326.594608541187</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V13" t="n">
-        <v>1071.9101203353</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W13" t="n">
-        <v>782.4929502983389</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X13" t="n">
-        <v>554.5033994003215</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y13" t="n">
-        <v>333.7108202567914</v>
+        <v>674.4145879000976</v>
       </c>
     </row>
     <row r="14">
@@ -5252,55 +5252,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2218.795317779172</v>
+        <v>1954.773926458868</v>
       </c>
       <c r="C14" t="n">
-        <v>1849.83280083876</v>
+        <v>1585.811409518456</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.316842211442</v>
+        <v>1585.811409518456</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.528589613197</v>
+        <v>1200.023156920212</v>
       </c>
       <c r="F14" t="n">
-        <v>801.5426848235898</v>
+        <v>789.0372521306047</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2352036347374</v>
+        <v>374.7297709417525</v>
       </c>
       <c r="H14" t="n">
-        <v>97.4858416681011</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
         <v>4156.161510599079</v>
@@ -5309,19 +5309,19 @@
         <v>3953.532414632628</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423756</v>
+        <v>3788.810399373567</v>
       </c>
       <c r="V14" t="n">
-        <v>3369.000248080185</v>
+        <v>3457.747512029996</v>
       </c>
       <c r="W14" t="n">
-        <v>3369.000248080185</v>
+        <v>3104.978856759882</v>
       </c>
       <c r="X14" t="n">
-        <v>2995.534489819106</v>
+        <v>2731.513098498802</v>
       </c>
       <c r="Y14" t="n">
-        <v>2605.395157843294</v>
+        <v>2341.37376652299</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J15" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>216.557510983586</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L15" t="n">
-        <v>670.3561405779135</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M15" t="n">
-        <v>1219.274605188203</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.129953114605</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O15" t="n">
-        <v>2303.534908062855</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P15" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.644190323788</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.5196245181905</v>
+        <v>866.1959702777251</v>
       </c>
       <c r="C16" t="n">
-        <v>779.5196245181905</v>
+        <v>697.2597873498182</v>
       </c>
       <c r="D16" t="n">
-        <v>629.4029851058548</v>
+        <v>547.1431479374825</v>
       </c>
       <c r="E16" t="n">
-        <v>629.4029851058548</v>
+        <v>399.2300543550894</v>
       </c>
       <c r="F16" t="n">
-        <v>482.5130376079444</v>
+        <v>252.340106857179</v>
       </c>
       <c r="G16" t="n">
-        <v>315.1533397258817</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J16" t="n">
         <v>153.8801783755867</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869778</v>
+        <v>396.9405013869776</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042035</v>
+        <v>763.5004667042033</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
-        <v>1553.248699711515</v>
+        <v>1553.248699711514</v>
       </c>
       <c r="O16" t="n">
         <v>1900.114228341785</v>
@@ -5461,25 +5461,25 @@
         <v>2204.76693339754</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685725</v>
+        <v>2204.76693339754</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.760544521729</v>
+        <v>1984.466456233544</v>
       </c>
       <c r="U16" t="n">
-        <v>1798.760544521729</v>
+        <v>1695.382306017909</v>
       </c>
       <c r="V16" t="n">
-        <v>1699.367389426938</v>
+        <v>1440.697817812022</v>
       </c>
       <c r="W16" t="n">
-        <v>1409.950219389978</v>
+        <v>1440.697817812022</v>
       </c>
       <c r="X16" t="n">
-        <v>1181.96066849196</v>
+        <v>1268.637014251495</v>
       </c>
       <c r="Y16" t="n">
-        <v>961.1680893484303</v>
+        <v>1047.844435107965</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G17" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5528,19 +5528,19 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
         <v>4017.391409283565</v>
@@ -5586,25 +5586,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>216.557510983586</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334505</v>
+        <v>388.0214583249807</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277778</v>
+        <v>841.8200879193082</v>
       </c>
       <c r="M18" t="n">
-        <v>973.3971899277778</v>
+        <v>1381.83934483395</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.289737812102</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O18" t="n">
         <v>1959.694692760353</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502111</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477726</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609054</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897933</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042817</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443644</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902818</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040896</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354976</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313939</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028691</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597208</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352545</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
         <v>725.1782574796675</v>
@@ -5744,25 +5744,25 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
@@ -5771,31 +5771,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
         <v>4188.091007924548</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
         <v>519.5985603334505</v>
       </c>
       <c r="L21" t="n">
-        <v>879.6062951712933</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>1428.524759781582</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781582</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5893,19 +5893,19 @@
         <v>617.6685920609048</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042785</v>
@@ -5917,16 +5917,16 @@
         <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
         <v>2529.521427597205</v>
@@ -5978,22 +5978,22 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511507</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076826</v>
       </c>
       <c r="K23" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M23" t="n">
         <v>2001.213713746738</v>
@@ -6002,19 +6002,19 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
         <v>4017.391409283565</v>
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177173</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>216.557510983586</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L24" t="n">
-        <v>670.3561405779135</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.274605188203</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042803</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443629</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902804</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354975</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E26" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796681</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511625</v>
@@ -6224,13 +6224,13 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M26" t="n">
         <v>2001.213713746739</v>
@@ -6257,19 +6257,19 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6297,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
         <v>84.98040897511625</v>
@@ -6306,25 +6306,25 @@
         <v>216.557510983586</v>
       </c>
       <c r="K27" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.315654538067</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N27" t="n">
-        <v>2100.171002464469</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477718</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F28" t="n">
         <v>386.7245456315386</v>
@@ -6382,13 +6382,13 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6412,16 +6412,16 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
         <v>1211.444469073043</v>
@@ -6437,61 +6437,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796679</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400163</v>
@@ -6506,7 +6506,7 @@
         <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J30" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L30" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.626315333738</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O30" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502111</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042817</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443643</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902818</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040896</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354976</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313939</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028691</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597208</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352545</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6680,52 +6680,52 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162846</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511697</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
         <v>766.6831886951454</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M32" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T32" t="n">
         <v>4017.391409283566</v>
@@ -6774,31 +6774,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J33" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K33" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M33" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N33" t="n">
-        <v>1551.25253785418</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O33" t="n">
-        <v>2057.65749280243</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502111</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H34" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042817</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443643</v>
       </c>
       <c r="L34" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902818</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040896</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354976</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313939</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028691</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597208</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352545</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237504</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="35">
@@ -6920,28 +6920,28 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162836</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511584</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
         <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M35" t="n">
         <v>2001.213713746739</v>
@@ -6959,13 +6959,13 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U35" t="n">
         <v>3795.851627400163</v>
@@ -7011,31 +7011,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J36" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L36" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M36" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N36" t="n">
-        <v>1551.25253785418</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O36" t="n">
-        <v>2057.65749280243</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502083</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C37" t="n">
-        <v>735.85573414777</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609028</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039783</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315364</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G37" t="n">
         <v>251.2943450749445</v>
@@ -7090,13 +7090,13 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443611</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L37" t="n">
         <v>857.3827676902786</v>
@@ -7111,34 +7111,34 @@
         <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162844</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511675</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V38" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>388.0214583249807</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L39" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M39" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477714</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
@@ -7360,19 +7360,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7394,25 +7394,25 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F41" t="n">
         <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7421,7 +7421,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233288</v>
@@ -7430,31 +7430,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J42" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L42" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.626315333738</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609048</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042785</v>
@@ -7573,13 +7573,13 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
         <v>2087.878830313936</v>
@@ -7612,7 +7612,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7634,19 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K44" t="n">
         <v>766.683188695145</v>
@@ -7655,10 +7655,10 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233288</v>
@@ -7667,28 +7667,28 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y44" t="n">
         <v>2476.13298385146</v>
@@ -7719,34 +7719,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J45" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K45" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L45" t="n">
-        <v>670.3561405779134</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M45" t="n">
-        <v>1219.274605188202</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7795,19 +7795,19 @@
         <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L46" t="n">
         <v>857.3827676902788</v>
@@ -7819,22 +7819,22 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
         <v>1887.747186237501</v>
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272672</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
         <v>106.7437663446525</v>
@@ -9334,7 +9334,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>163.04166636588</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9571,7 +9571,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658824</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272516</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>106.7437663446525</v>
@@ -9808,7 +9808,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658821</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272297</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10267,10 +10267,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272662</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446527</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272663</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56.38628234902389</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -22568,13 +22568,13 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22586,10 +22586,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>10.04080059790749</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>233.1907707792581</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>126.4915721992623</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>156.2490562144088</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>51.33557733047832</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>105.6822425796375</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>87.8597913103122</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1933087134791</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>153.7384197799852</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>55.36945986411553</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.302158463862725e-12</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>57981.63991445712</v>
       </c>
       <c r="C2" t="n">
+        <v>61578.13273982127</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61578.13273982124</v>
+      </c>
+      <c r="E2" t="n">
+        <v>51149.56484563812</v>
+      </c>
+      <c r="F2" t="n">
+        <v>57505.73864634826</v>
+      </c>
+      <c r="G2" t="n">
+        <v>61578.13273982133</v>
+      </c>
+      <c r="H2" t="n">
+        <v>61578.13273982133</v>
+      </c>
+      <c r="I2" t="n">
+        <v>61578.1327398213</v>
+      </c>
+      <c r="J2" t="n">
+        <v>61578.13273982132</v>
+      </c>
+      <c r="K2" t="n">
+        <v>61578.13273982132</v>
+      </c>
+      <c r="L2" t="n">
+        <v>61578.13273982132</v>
+      </c>
+      <c r="M2" t="n">
+        <v>61578.13273982127</v>
+      </c>
+      <c r="N2" t="n">
         <v>61578.13273982125</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61578.13273982125</v>
-      </c>
-      <c r="E2" t="n">
-        <v>51149.56484563811</v>
-      </c>
-      <c r="F2" t="n">
-        <v>57505.73864634828</v>
-      </c>
-      <c r="G2" t="n">
-        <v>61578.1327398213</v>
-      </c>
-      <c r="H2" t="n">
-        <v>61578.13273982125</v>
-      </c>
-      <c r="I2" t="n">
-        <v>61578.13273982134</v>
-      </c>
-      <c r="J2" t="n">
-        <v>61578.13273982127</v>
-      </c>
-      <c r="K2" t="n">
-        <v>61578.13273982133</v>
-      </c>
-      <c r="L2" t="n">
-        <v>61578.13273982125</v>
-      </c>
-      <c r="M2" t="n">
-        <v>61578.13273982125</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61578.13273982126</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982127</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>314444.4864346</v>
       </c>
       <c r="C3" t="n">
-        <v>56271.05156263569</v>
+        <v>56271.05156263439</v>
       </c>
       <c r="D3" t="n">
-        <v>88049.4697294568</v>
+        <v>88049.46972945801</v>
       </c>
       <c r="E3" t="n">
-        <v>728470.1008399347</v>
+        <v>728470.1008399349</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.109696308</v>
+        <v>215052.1096963079</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.1618817711</v>
+        <v>25288.16188177118</v>
       </c>
       <c r="H3" t="n">
-        <v>9.663381206337363e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8978.15074079955</v>
+        <v>8978.150740799398</v>
       </c>
       <c r="L3" t="n">
-        <v>39911.87677390411</v>
+        <v>39911.87677390432</v>
       </c>
       <c r="M3" t="n">
         <v>184096.0922694315</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578632</v>
+        <v>56542.29359578629</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330698.4677251942</v>
+        <v>330698.4677251941</v>
       </c>
       <c r="C4" t="n">
-        <v>340674.6247663272</v>
+        <v>340674.6247663277</v>
       </c>
       <c r="D4" t="n">
         <v>312487.2615518147</v>
       </c>
       <c r="E4" t="n">
-        <v>15869.84275221446</v>
+        <v>15869.84275221455</v>
       </c>
       <c r="F4" t="n">
-        <v>15989.31768391302</v>
+        <v>15989.31768391307</v>
       </c>
       <c r="G4" t="n">
-        <v>47059.20276613303</v>
+        <v>47059.20276613314</v>
       </c>
       <c r="H4" t="n">
         <v>47059.20276613309</v>
       </c>
       <c r="I4" t="n">
-        <v>47059.20276613306</v>
+        <v>47059.20276613304</v>
       </c>
       <c r="J4" t="n">
+        <v>47059.20276613308</v>
+      </c>
+      <c r="K4" t="n">
+        <v>47059.20276613303</v>
+      </c>
+      <c r="L4" t="n">
+        <v>47059.20276613301</v>
+      </c>
+      <c r="M4" t="n">
+        <v>47059.20276613304</v>
+      </c>
+      <c r="N4" t="n">
+        <v>47059.20276613299</v>
+      </c>
+      <c r="O4" t="n">
+        <v>47059.20276613304</v>
+      </c>
+      <c r="P4" t="n">
         <v>47059.20276613309</v>
-      </c>
-      <c r="K4" t="n">
-        <v>47059.20276613313</v>
-      </c>
-      <c r="L4" t="n">
-        <v>47059.20276613314</v>
-      </c>
-      <c r="M4" t="n">
-        <v>47059.20276613302</v>
-      </c>
-      <c r="N4" t="n">
-        <v>47059.20276613308</v>
-      </c>
-      <c r="O4" t="n">
-        <v>47059.20276613309</v>
-      </c>
-      <c r="P4" t="n">
-        <v>47059.20276613312</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>40741.33736580378</v>
       </c>
       <c r="C5" t="n">
-        <v>43939.64495097128</v>
+        <v>43939.64495097121</v>
       </c>
       <c r="D5" t="n">
         <v>49237.11966583622</v>
@@ -26479,16 +26479,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060702</v>
+        <v>92448.996000607</v>
       </c>
       <c r="G5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
         <v>95106.4341021553</v>
@@ -26500,16 +26500,16 @@
         <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="N5" t="n">
+        <v>95106.43410215531</v>
+      </c>
+      <c r="O5" t="n">
         <v>95106.4341021553</v>
       </c>
-      <c r="O5" t="n">
-        <v>95106.43410215528</v>
-      </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-627902.6516111408</v>
+        <v>-628022.5347053196</v>
       </c>
       <c r="C6" t="n">
-        <v>-379307.1885401129</v>
+        <v>-379307.188540112</v>
       </c>
       <c r="D6" t="n">
-        <v>-388195.7182072865</v>
+        <v>-388195.7182072877</v>
       </c>
       <c r="E6" t="n">
-        <v>-767496.7193079042</v>
+        <v>-767844.3382377106</v>
       </c>
       <c r="F6" t="n">
-        <v>-265984.6847344798</v>
+        <v>-266120.4312042621</v>
       </c>
       <c r="G6" t="n">
-        <v>-105875.6660102381</v>
+        <v>-105875.6660102383</v>
       </c>
       <c r="H6" t="n">
-        <v>-80587.50412846723</v>
+        <v>-80587.50412846697</v>
       </c>
       <c r="I6" t="n">
-        <v>-80587.50412846697</v>
+        <v>-80587.50412846702</v>
       </c>
       <c r="J6" t="n">
-        <v>-80587.50412846712</v>
+        <v>-80587.50412846706</v>
       </c>
       <c r="K6" t="n">
-        <v>-89565.65486926664</v>
+        <v>-89565.65486926641</v>
       </c>
       <c r="L6" t="n">
         <v>-120499.3809023713</v>
@@ -26558,10 +26558,10 @@
         <v>-137129.7977242534</v>
       </c>
       <c r="O6" t="n">
-        <v>-80587.50412846712</v>
+        <v>-80587.50412846707</v>
       </c>
       <c r="P6" t="n">
-        <v>-80587.50412846712</v>
+        <v>-80587.50412846715</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26695,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221401</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="K2" t="n">
         <v>31.61020235221381</v>
       </c>
-      <c r="H2" t="n">
-        <v>31.61020235221393</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31.61020235221387</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221393</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221393</v>
-      </c>
       <c r="L2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P2" t="n">
         <v>31.61020235221395</v>
@@ -26738,7 +26738,7 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>375.7370697234882</v>
+        <v>375.7370697234871</v>
       </c>
       <c r="D3" t="n">
         <v>457.5913187641656</v>
@@ -26790,13 +26790,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196119</v>
+        <v>34.88448735196041</v>
       </c>
       <c r="D4" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26917,13 +26917,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H2" t="n">
-        <v>1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>49.41884193432395</v>
+        <v>49.41884193432281</v>
       </c>
       <c r="D3" t="n">
-        <v>81.85424904067736</v>
+        <v>81.8542490406785</v>
       </c>
       <c r="E3" t="n">
-        <v>632.1853818291324</v>
+        <v>632.1853818291327</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268247</v>
+        <v>188.3831700268245</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196119</v>
+        <v>34.88448735196041</v>
       </c>
       <c r="D4" t="n">
-        <v>57.78046193714111</v>
+        <v>57.78046193714189</v>
       </c>
       <c r="E4" t="n">
-        <v>738.7365061131906</v>
+        <v>738.7365061131904</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866601</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196121</v>
+        <v>34.88448735196086</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193714113</v>
+        <v>57.78046193714179</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131906</v>
+        <v>738.7365061131904</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866601</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,13 +27154,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M2" t="n">
-        <v>1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196119</v>
+        <v>34.88448735196041</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193714111</v>
+        <v>57.78046193714189</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131906</v>
+        <v>738.7365061131904</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866601</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>325.5440877232379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27400,13 +27400,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27418,10 +27418,10 @@
         <v>9.069265482343781</v>
       </c>
       <c r="P2" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.64258426171736</v>
+        <v>70.60178366380987</v>
       </c>
       <c r="R2" t="n">
         <v>133.1811664518765</v>
@@ -27430,7 +27430,7 @@
         <v>179.1266962566148</v>
       </c>
       <c r="T2" t="n">
-        <v>217.3533046710778</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2407063421153</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>319.7985542687218</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,16 +27628,16 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>388.6519918336618</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>324.0053859738348</v>
       </c>
       <c r="I5" t="n">
-        <v>152.2423081412007</v>
+        <v>152.2423081412009</v>
       </c>
       <c r="J5" t="n">
-        <v>52.84403871183639</v>
+        <v>52.84403871183676</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27655,16 +27655,16 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>14.02109506150165</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>59.18859846499285</v>
+        <v>26.97719800819983</v>
       </c>
       <c r="R5" t="n">
-        <v>120.7015430160695</v>
+        <v>120.7015430160698</v>
       </c>
       <c r="S5" t="n">
-        <v>174.5995329980082</v>
+        <v>174.5995329980083</v>
       </c>
       <c r="T5" t="n">
         <v>216.4836323873894</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.6486962979062</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,22 +27704,22 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>114.3429559337765</v>
+        <v>110.1847250414235</v>
       </c>
       <c r="G6" t="n">
         <v>136.5353279943714</v>
       </c>
       <c r="H6" t="n">
-        <v>69.54555096443035</v>
+        <v>104.4300383163916</v>
       </c>
       <c r="I6" t="n">
-        <v>71.69656870443978</v>
+        <v>71.69656870443987</v>
       </c>
       <c r="J6" t="n">
-        <v>50.48147365804725</v>
+        <v>15.59698630608707</v>
       </c>
       <c r="K6" t="n">
-        <v>7.336611653513074</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27737,10 +27737,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.81713562156489</v>
+        <v>1.93264826960479</v>
       </c>
       <c r="R6" t="n">
-        <v>95.50088170919318</v>
+        <v>72.11123690310011</v>
       </c>
       <c r="S6" t="n">
         <v>156.6714117615834</v>
@@ -27755,7 +27755,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>216.8104958089584</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27792,34 +27792,34 @@
         <v>156.2030601436761</v>
       </c>
       <c r="I7" t="n">
-        <v>135.0744384248763</v>
+        <v>135.0744384248764</v>
       </c>
       <c r="J7" t="n">
-        <v>79.09202486169829</v>
+        <v>79.09202486169843</v>
       </c>
       <c r="K7" t="n">
-        <v>50.29326225141772</v>
+        <v>50.29326225141794</v>
       </c>
       <c r="L7" t="n">
-        <v>34.15018385078046</v>
+        <v>34.15018385078078</v>
       </c>
       <c r="M7" t="n">
-        <v>32.71538569773446</v>
+        <v>32.71538569773479</v>
       </c>
       <c r="N7" t="n">
-        <v>24.00059209383187</v>
+        <v>24.00059209383218</v>
       </c>
       <c r="O7" t="n">
-        <v>42.68670304101006</v>
+        <v>42.68670304101035</v>
       </c>
       <c r="P7" t="n">
-        <v>55.78036510486426</v>
+        <v>55.7803651048645</v>
       </c>
       <c r="Q7" t="n">
-        <v>94.76870410119912</v>
+        <v>94.76870410119929</v>
       </c>
       <c r="R7" t="n">
-        <v>146.8278906090978</v>
+        <v>146.8278906090979</v>
       </c>
       <c r="S7" t="n">
         <v>212.2085986491046</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>289.2654207831595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>227.9704273259875</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I8" t="n">
-        <v>139.5561335235496</v>
+        <v>46.89118423444737</v>
       </c>
       <c r="J8" t="n">
-        <v>24.91528667358034</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,19 +27895,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.65357118422321</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>100.0310828299331</v>
+        <v>7.366133540830774</v>
       </c>
       <c r="S8" t="n">
         <v>167.1010256612668</v>
       </c>
       <c r="T8" t="n">
-        <v>153.7630949679233</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1984878605957</v>
+        <v>158.5335385714935</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>277.0661513893667</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>373.5267293463531</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.91389631602608</v>
+        <v>133.1039353818165</v>
       </c>
       <c r="C9" t="n">
-        <v>80.04354969921346</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>54.78011627553647</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27953,7 +27953,7 @@
         <v>65.63472101604999</v>
       </c>
       <c r="J9" t="n">
-        <v>33.84730027516771</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,7 +27974,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.34273879062268</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>84.5694784127797</v>
@@ -27983,7 +27983,7 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T9" t="n">
-        <v>103.5325490100187</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U9" t="n">
         <v>225.8766285924705</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>113.0177464882021</v>
       </c>
     </row>
     <row r="10">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605494</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605494</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605377</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221381</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221379</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221247</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221429</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="44">
@@ -30763,7 +30763,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221355</v>
       </c>
     </row>
     <row r="45">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.510500782807992</v>
+        <v>1.510500782807987</v>
       </c>
       <c r="H5" t="n">
-        <v>15.46941614193235</v>
+        <v>15.4694161419323</v>
       </c>
       <c r="I5" t="n">
-        <v>58.23358142920516</v>
+        <v>58.23358142920498</v>
       </c>
       <c r="J5" t="n">
-        <v>128.2018658148499</v>
+        <v>128.2018658148495</v>
       </c>
       <c r="K5" t="n">
-        <v>192.1413639511122</v>
+        <v>192.1413639511117</v>
       </c>
       <c r="L5" t="n">
-        <v>238.3683522829724</v>
+        <v>238.3683522829716</v>
       </c>
       <c r="M5" t="n">
-        <v>265.2307205792339</v>
+        <v>265.2307205792332</v>
       </c>
       <c r="N5" t="n">
-        <v>264.2975509485521</v>
+        <v>264.2975509485513</v>
       </c>
       <c r="O5" t="n">
-        <v>254.5023887693402</v>
+        <v>254.5023887693394</v>
       </c>
       <c r="P5" t="n">
-        <v>217.2119006937679</v>
+        <v>217.2119006937672</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.1170914094566</v>
+        <v>163.1170914094561</v>
       </c>
       <c r="R5" t="n">
-        <v>94.88399479806259</v>
+        <v>94.8839947980623</v>
       </c>
       <c r="S5" t="n">
-        <v>34.42053658823715</v>
+        <v>34.42053658823704</v>
       </c>
       <c r="T5" t="n">
-        <v>6.612217176741987</v>
+        <v>6.612217176741967</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1208400626246393</v>
+        <v>0.1208400626246389</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8081891688392011</v>
+        <v>0.8081891688391987</v>
       </c>
       <c r="H6" t="n">
-        <v>7.805405920104917</v>
+        <v>7.805405920104893</v>
       </c>
       <c r="I6" t="n">
-        <v>27.82581129556022</v>
+        <v>27.82581129556013</v>
       </c>
       <c r="J6" t="n">
-        <v>76.35615300861944</v>
+        <v>76.35615300861922</v>
       </c>
       <c r="K6" t="n">
-        <v>130.5048273208459</v>
+        <v>130.5048273208455</v>
       </c>
       <c r="L6" t="n">
-        <v>151.6751159548055</v>
+        <v>173.4388671318346</v>
       </c>
       <c r="M6" t="n">
-        <v>177.0185212739795</v>
+        <v>177.0185212739787</v>
       </c>
       <c r="N6" t="n">
-        <v>166.2261994352945</v>
+        <v>166.2261994352937</v>
       </c>
       <c r="O6" t="n">
-        <v>177.4807317964056</v>
+        <v>155.7169806193754</v>
       </c>
       <c r="P6" t="n">
-        <v>154.3286843549173</v>
+        <v>154.3286843549168</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.1646384644566</v>
+        <v>103.1646384644563</v>
       </c>
       <c r="R6" t="n">
-        <v>50.17862225477077</v>
+        <v>50.17862225477062</v>
       </c>
       <c r="S6" t="n">
-        <v>15.01175934225445</v>
+        <v>15.0117593422544</v>
       </c>
       <c r="T6" t="n">
-        <v>3.257569500715901</v>
+        <v>3.257569500715892</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05317034005521062</v>
+        <v>0.05317034005521046</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6775586503210442</v>
+        <v>0.6775586503210422</v>
       </c>
       <c r="H7" t="n">
-        <v>6.024112363763471</v>
+        <v>6.024112363763452</v>
       </c>
       <c r="I7" t="n">
-        <v>20.37603650238195</v>
+        <v>20.37603650238189</v>
       </c>
       <c r="J7" t="n">
-        <v>47.90339657769783</v>
+        <v>47.90339657769768</v>
       </c>
       <c r="K7" t="n">
-        <v>78.71999591911766</v>
+        <v>78.71999591911744</v>
       </c>
       <c r="L7" t="n">
-        <v>100.7344924304578</v>
+        <v>100.7344924304575</v>
       </c>
       <c r="M7" t="n">
-        <v>106.2103982498706</v>
+        <v>106.2103982498703</v>
       </c>
       <c r="N7" t="n">
-        <v>103.6849523714013</v>
+        <v>103.684952371401</v>
       </c>
       <c r="O7" t="n">
-        <v>95.76983541083273</v>
+        <v>95.76983541083244</v>
       </c>
       <c r="P7" t="n">
-        <v>81.94763894428336</v>
+        <v>81.94763894428311</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.73629752824672</v>
+        <v>56.73629752824655</v>
       </c>
       <c r="R7" t="n">
-        <v>30.46550076807167</v>
+        <v>30.46550076807158</v>
       </c>
       <c r="S7" t="n">
-        <v>11.80799938786765</v>
+        <v>11.80799938786761</v>
       </c>
       <c r="T7" t="n">
-        <v>2.895023324099006</v>
+        <v>2.895023324098998</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03695774456296609</v>
+        <v>0.03695774456296598</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31610,10 +31610,10 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M9" t="n">
-        <v>234.7989832111206</v>
+        <v>174.5799468423665</v>
       </c>
       <c r="N9" t="n">
-        <v>163.7876250036815</v>
+        <v>224.0066613724356</v>
       </c>
       <c r="O9" t="n">
         <v>234.1788327264122</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H14" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I14" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32029,7 +32029,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M15" t="n">
-        <v>696.597129487967</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N15" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P15" t="n">
-        <v>177.6727308988283</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,10 +32154,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
         <v>342.6725659692048</v>
@@ -32169,22 +32169,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P16" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32312,7 +32312,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>443.9435090247271</v>
@@ -32321,13 +32321,13 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>687.6080308054952</v>
       </c>
       <c r="N18" t="n">
-        <v>616.081659441237</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>524.9860796892351</v>
@@ -32555,25 +32555,25 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
-        <v>502.1985563837558</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O21" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486998</v>
@@ -32701,46 +32701,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I23" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R23" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T23" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,37 +32780,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N24" t="n">
-        <v>342.7055046018986</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578284</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486998</v>
@@ -32862,7 +32862,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838147</v>
@@ -32871,13 +32871,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O25" t="n">
         <v>325.7840929246177</v>
@@ -32892,10 +32892,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32938,46 +32938,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H26" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I26" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R26" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S26" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T26" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,28 +33017,28 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H27" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O27" t="n">
-        <v>577.6550422513119</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33099,7 +33099,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I28" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J28" t="n">
         <v>162.9549067838147</v>
@@ -33108,13 +33108,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L28" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M28" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N28" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O28" t="n">
         <v>325.7840929246177</v>
@@ -33129,10 +33129,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33175,46 +33175,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H29" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I29" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R29" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S29" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T29" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,37 +33254,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H30" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J30" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
-        <v>409.1782535983394</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N30" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33336,7 +33336,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I31" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J31" t="n">
         <v>162.9549067838147</v>
@@ -33345,13 +33345,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L31" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O31" t="n">
         <v>325.7840929246177</v>
@@ -33366,10 +33366,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33412,46 +33412,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H32" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I32" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J32" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K32" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L32" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M32" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N32" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O32" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P32" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q32" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R32" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S32" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T32" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,37 +33491,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H33" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I33" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J33" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K33" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L33" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N33" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578284</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P33" t="n">
-        <v>401.0186270906516</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486998</v>
@@ -33573,7 +33573,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I34" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J34" t="n">
         <v>162.9549067838147</v>
@@ -33582,13 +33582,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L34" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M34" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N34" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O34" t="n">
         <v>325.7840929246177</v>
@@ -33603,10 +33603,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S34" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T34" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U34" t="n">
         <v>0.1257206430118155</v>
@@ -33649,46 +33649,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H35" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I35" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J35" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K35" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L35" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M35" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N35" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O35" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P35" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q35" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R35" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S35" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T35" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,37 +33728,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H36" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I36" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J36" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K36" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N36" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578284</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P36" t="n">
-        <v>401.0186270906516</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486998</v>
@@ -33810,7 +33810,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I37" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J37" t="n">
         <v>162.9549067838147</v>
@@ -33819,13 +33819,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L37" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M37" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N37" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O37" t="n">
         <v>325.7840929246177</v>
@@ -33840,10 +33840,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S37" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T37" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U37" t="n">
         <v>0.1257206430118155</v>
@@ -33886,46 +33886,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H38" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I38" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L38" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O38" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R38" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S38" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T38" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,37 +33965,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H39" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K39" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>151.0727449683534</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N39" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578284</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486998</v>
@@ -34047,7 +34047,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I40" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J40" t="n">
         <v>162.9549067838147</v>
@@ -34056,13 +34056,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L40" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M40" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N40" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O40" t="n">
         <v>325.7840929246177</v>
@@ -34077,10 +34077,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34123,46 +34123,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H41" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I41" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L41" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M41" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N41" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O41" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R41" t="n">
-        <v>322.7706933581559</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S41" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T41" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,37 +34202,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H42" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J42" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K42" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L42" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
-        <v>409.1782535983394</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N42" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34284,7 +34284,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I43" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J43" t="n">
         <v>162.9549067838147</v>
@@ -34293,13 +34293,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L43" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M43" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N43" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O43" t="n">
         <v>325.7840929246177</v>
@@ -34314,10 +34314,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S43" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T43" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U43" t="n">
         <v>0.1257206430118155</v>
@@ -34375,7 +34375,7 @@
         <v>810.8671910869753</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654306</v>
       </c>
       <c r="N44" t="n">
         <v>916.8452708117592</v>
@@ -34448,7 +34448,7 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155585</v>
@@ -34457,19 +34457,19 @@
         <v>696.597129487967</v>
       </c>
       <c r="N45" t="n">
-        <v>342.7055046018988</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486998</v>
@@ -34939,16 +34939,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.601937312985115</v>
+        <v>2.601937312984404</v>
       </c>
       <c r="M5" t="n">
-        <v>34.88448735196121</v>
+        <v>34.88448735196042</v>
       </c>
       <c r="N5" t="n">
-        <v>34.88448735196119</v>
+        <v>34.88448735196041</v>
       </c>
       <c r="O5" t="n">
-        <v>24.40417734765347</v>
+        <v>24.40417734765271</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>13.12073617493129</v>
+        <v>34.88448735196041</v>
       </c>
       <c r="M6" t="n">
-        <v>34.88448735196119</v>
+        <v>34.88448735196041</v>
       </c>
       <c r="N6" t="n">
-        <v>34.88448735196119</v>
+        <v>34.88448735196041</v>
       </c>
       <c r="O6" t="n">
-        <v>34.88448735196119</v>
+        <v>13.120736174931</v>
       </c>
       <c r="P6" t="n">
-        <v>20.35427694058703</v>
+        <v>20.35427694058657</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>75.15371678069204</v>
       </c>
       <c r="M9" t="n">
+        <v>32.44591292034816</v>
+      </c>
+      <c r="N9" t="n">
         <v>92.66494928910228</v>
-      </c>
-      <c r="N9" t="n">
-        <v>32.44591292034817</v>
       </c>
       <c r="O9" t="n">
         <v>91.58258828196773</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306217</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R14" t="n">
         <v>107.1851555440239</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4630955659486</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O15" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P15" t="n">
-        <v>43.69832348449811</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714189</v>
+        <v>69.59572666714186</v>
       </c>
       <c r="K16" t="n">
         <v>245.5154777892838</v>
@@ -35814,13 +35814,13 @@
         <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
-        <v>396.8414363488769</v>
+        <v>396.8414363488768</v>
       </c>
       <c r="O16" t="n">
         <v>350.3692208386573</v>
       </c>
       <c r="P16" t="n">
-        <v>276.043131703092</v>
+        <v>276.0431317030919</v>
       </c>
       <c r="Q16" t="n">
         <v>106.8400972119442</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>306.1020700503681</v>
@@ -35969,13 +35969,13 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>545.4739968834768</v>
       </c>
       <c r="N18" t="n">
-        <v>484.7399473579036</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>391.0116722749049</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193591</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908711</v>
+        <v>381.9794231908689</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553058</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
-        <v>363.6441766038816</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O21" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L23" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N24" t="n">
-        <v>211.3637925185653</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O24" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193576</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908709</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L26" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K27" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O27" t="n">
-        <v>435.0587978068675</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193555</v>
       </c>
       <c r="K28" t="n">
         <v>277.1256801414978</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L29" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440247</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K30" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
-        <v>267.0442196763211</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193558</v>
+        <v>101.205929019359</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L32" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N32" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O32" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P32" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K33" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L33" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O33" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P33" t="n">
-        <v>267.0442196763213</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193559</v>
+        <v>101.205929019359</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K35" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L35" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M35" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N35" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P35" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q35" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R35" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K36" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O36" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P36" t="n">
-        <v>267.0442196763213</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
         <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L38" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P38" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R38" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K39" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>8.938711046335131</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O39" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,16 +37704,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L41" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N41" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P41" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440238</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K42" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L42" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
-        <v>267.0442196763211</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
@@ -38023,7 +38023,7 @@
         <v>575.1007761169881</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381579</v>
       </c>
       <c r="N44" t="n">
         <v>687.4322072151683</v>
@@ -38038,7 +38038,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356843</v>
@@ -38105,19 +38105,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3637925185655</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
